--- a/1.kubrik/development_files/development_files/0 - Course Files & Templates/dbt Project Checklist.xlsx
+++ b/1.kubrik/development_files/development_files/0 - Course Files & Templates/dbt Project Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavmalhi/Developer/kubrick/arch/enablement_sessions/finance/repos/development_files/0 - Course Files &amp; Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRanjan\dbt_demo\1.kubrik\development_files\development_files\0 - Course Files &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C677BA1-3CCC-2543-B466-3957D16D21C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA108B-AC04-4FA3-94FD-5DD68BED803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbt Core Checklist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="285">
   <si>
     <t>dbt Core Project Checklist</t>
   </si>
@@ -1752,7 +1752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1871,7 +1871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1896,8 +1896,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1905,22 +1903,20 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2158,33 +2154,33 @@
   </sheetPr>
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView zoomScale="158" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" customWidth="1"/>
-    <col min="5" max="5" width="85.5" style="13" customWidth="1"/>
-    <col min="6" max="27" width="12.6640625" hidden="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="85.42578125" style="13" customWidth="1"/>
+    <col min="6" max="27" width="12.7109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27" ht="23.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2228,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" hidden="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2259,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2289,7 +2285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2315,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2342,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2372,7 +2368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2398,7 +2394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -2429,7 +2425,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15">
         <v>9</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16">
         <v>10</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" hidden="1">
       <c r="A17">
         <v>11</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" hidden="1">
       <c r="A18">
         <v>12</v>
       </c>
@@ -2481,7 +2477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="56" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="51" hidden="1">
       <c r="A19">
         <v>13</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="28" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="25.5" hidden="1">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="42" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="38.25" hidden="1">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="84" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="76.5" hidden="1">
       <c r="A22">
         <v>16</v>
       </c>
@@ -2533,7 +2529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" hidden="1">
       <c r="A23">
         <v>17</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" hidden="1">
       <c r="A24">
         <v>18</v>
       </c>
@@ -2559,7 +2555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" hidden="1">
       <c r="A25">
         <v>19</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -2603,7 +2599,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -2642,7 +2638,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -2737,7 +2733,7 @@
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27">
       <c r="A36" s="5" t="s">
         <v>63</v>
       </c>
@@ -2804,7 +2800,7 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2818,7 +2814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2829,7 +2825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2843,7 +2839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2857,7 +2853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -2896,40 +2892,46 @@
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
     </row>
-    <row r="42" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E42" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+      <c r="C43" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E44" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27">
       <c r="A45" s="3" t="s">
         <v>77</v>
       </c>
@@ -2960,7 +2962,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27">
       <c r="A46" s="5" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +3001,7 @@
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
     </row>
-    <row r="47" spans="1:27" ht="42" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" ht="38.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="25.5">
       <c r="A48">
         <v>44</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27">
       <c r="A49" s="5" t="s">
         <v>83</v>
       </c>
@@ -3062,7 +3064,7 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>45</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3083,7 +3085,7 @@
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27">
       <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
@@ -3114,7 +3116,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27">
       <c r="A53" s="5" t="s">
         <v>88</v>
       </c>
@@ -3153,7 +3155,7 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>47</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>48</v>
       </c>
@@ -3191,7 +3193,7 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>49</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>50</v>
       </c>
@@ -3228,17 +3230,17 @@
       <selection activeCell="E6" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6" style="16"/>
-    <col min="2" max="2" width="13.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="16"/>
+    <col min="1" max="1" width="6" style="14"/>
+    <col min="2" max="2" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="6" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
@@ -3252,67 +3254,67 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:5" ht="25.5">
+      <c r="B3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:5" ht="38.25">
+      <c r="B4" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:5" ht="38.25">
+      <c r="B5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:5" ht="25.5">
+      <c r="B6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="22"/>
+    <row r="7" spans="2:5">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="13"/>
+      <c r="E7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,16 +3329,16 @@
       <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11" style="16"/>
-    <col min="2" max="2" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="11" style="16"/>
+    <col min="1" max="1" width="11" style="14"/>
+    <col min="2" max="2" width="15.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>142</v>
       </c>
@@ -3347,206 +3349,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:4" ht="25.5">
+      <c r="B3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:4" ht="25.5">
+      <c r="B4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:4" ht="25.5">
+      <c r="B5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:4" ht="25.5">
+      <c r="B6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7"/>
+      <c r="C7" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:4" ht="25.5">
+      <c r="B9" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:4" ht="25.5">
+      <c r="B10" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:4" ht="25.5">
+      <c r="B11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:4" ht="25.5">
+      <c r="B12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:4" ht="25.5">
+      <c r="B13" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:4" ht="25.5">
+      <c r="B14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:4" ht="25.5">
+      <c r="B15" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="2:4" ht="25.5">
+      <c r="B16" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:4" ht="25.5">
+      <c r="B17" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:4" ht="25.5">
+      <c r="B18" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20"/>
+      <c r="C20" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="20" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21"/>
+      <c r="C21" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3559,16 +3561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720CA848-D10F-584C-9E5C-6EEE3F98AB48}">
   <dimension ref="B3:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="24" style="17"/>
+    <col min="1" max="16384" width="24" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>198</v>
       </c>
@@ -3582,105 +3584,105 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:5" ht="25.5">
+      <c r="B4" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="2:5" ht="25.5">
+      <c r="B5" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:5" ht="25.5">
+      <c r="B6" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="2:5" ht="25.5">
+      <c r="B11" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>226</v>
       </c>
@@ -3688,46 +3690,46 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+    <row r="16" spans="2:5">
+      <c r="B16" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="19" spans="2:4">
+      <c r="C19" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="2:4" ht="25.5">
+      <c r="C20" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+    <row r="21" spans="2:4">
+      <c r="C21" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>237</v>
       </c>
@@ -3738,201 +3740,201 @@
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="2:4" ht="25.5">
+      <c r="B28" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="34" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="2:4" ht="25.5">
+      <c r="B32" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="22">
         <v>11.1</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="44" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="2:4" ht="38.25">
+      <c r="B37" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B40" s="18" t="s">
+    <row r="39" spans="2:4">
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="2:4" ht="44" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="2:4" ht="38.25">
+      <c r="B41" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="61" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+    <row r="42" spans="2:4" ht="51">
+      <c r="B42" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3957,14 +3959,14 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" customWidth="1"/>
-    <col min="2" max="3" width="64.83203125" customWidth="1"/>
-    <col min="4" max="25" width="12.6640625" hidden="1"/>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="3" width="64.85546875" customWidth="1"/>
+    <col min="4" max="25" width="12.7109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -3973,7 +3975,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>94</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>97</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>100</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>103</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>106</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>109</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>115</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>118</v>
       </c>
